--- a/2023/ITF_ElectronicsPartsList.xlsx
+++ b/2023/ITF_ElectronicsPartsList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leistimo\Documents\GitHub\IgniteTheirFuture\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4D5B6C-74DB-4DC2-8C8A-AA37FC75AC96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A92AC25-007C-4051-B8DE-B4AC0E877101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9DB2BF9A-691B-4B10-8437-7BC03796631C}"/>
+    <workbookView xWindow="-180" yWindow="1300" windowWidth="14400" windowHeight="7360" xr2:uid="{9DB2BF9A-691B-4B10-8437-7BC03796631C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
     <author>Tim Leishman</author>
   </authors>
   <commentList>
-    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{16E6B9D3-802A-4FFA-B7C7-4C45CB2B189C}">
+    <comment ref="D9" authorId="0" shapeId="0" xr:uid="{16E6B9D3-802A-4FFA-B7C7-4C45CB2B189C}">
       <text>
         <r>
           <rPr>
@@ -63,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D9" authorId="0" shapeId="0" xr:uid="{1861855B-F84B-4B89-A287-FA0876C9463C}">
+    <comment ref="D10" authorId="0" shapeId="0" xr:uid="{1861855B-F84B-4B89-A287-FA0876C9463C}">
       <text>
         <r>
           <rPr>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>Bread Board Power Supply Kit</t>
   </si>
@@ -112,9 +112,6 @@
     <t>Digital Multimeter plus accessory kit</t>
   </si>
   <si>
-    <t>12 Participants</t>
-  </si>
-  <si>
     <t>Safety Glasses</t>
   </si>
   <si>
@@ -149,6 +146,18 @@
   </si>
   <si>
     <t>Bread board x3 with wires</t>
+  </si>
+  <si>
+    <t>PerPerson</t>
+  </si>
+  <si>
+    <t>Participants</t>
+  </si>
+  <si>
+    <t>ToolBox</t>
+  </si>
+  <si>
+    <t>Walmart</t>
   </si>
 </sst>
 </file>
@@ -209,10 +218,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -528,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D56C9EDC-3AE9-49DA-B7E8-451B2CC02C78}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -544,14 +554,17 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>19</v>
+      </c>
+      <c r="B1">
+        <v>12</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -574,7 +587,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
@@ -582,7 +595,13 @@
       <c r="C3" s="1">
         <v>14.99</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1">
+        <f>C3*D3</f>
+        <v>59.96</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -598,7 +617,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E13" si="0">C4*D4</f>
+        <f t="shared" ref="E4:E14" si="0">C4*D4</f>
         <v>95.88</v>
       </c>
     </row>
@@ -640,59 +659,61 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1">
-        <v>14.95</v>
+        <v>9.8800000000000008</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>14.95</v>
+        <v>118.56</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="1">
-        <v>6.99</v>
+        <v>14.95</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" ref="E8" si="1">C8*D8</f>
-        <v>55.92</v>
+        <f t="shared" si="0"/>
+        <v>14.95</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1">
+        <v>6.99</v>
+      </c>
       <c r="D9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="E9" si="1">C9*D9</f>
+        <v>55.92</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>3</v>
@@ -708,9 +729,11 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="C11" s="1"/>
       <c r="D11">
         <v>0</v>
@@ -722,7 +745,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
@@ -736,11 +759,9 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>3</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B13" s="2"/>
       <c r="C13" s="1"/>
       <c r="D13">
         <v>0</v>
@@ -752,22 +773,47 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="C14" s="1"/>
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="E14" s="1"/>
+      <c r="E14" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="1">
-        <f>SUM(E2:E13)</f>
-        <v>590.59</v>
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="1"/>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="1">
+        <f>SUM(E2:E14)</f>
+        <v>769.11</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="3">
+        <f>E16/B1</f>
+        <v>64.092500000000001</v>
       </c>
     </row>
   </sheetData>
@@ -775,15 +821,16 @@
     <hyperlink ref="B4" r:id="rId1" xr:uid="{FB80CCD2-54E3-4418-90A3-ECF9D859593D}"/>
     <hyperlink ref="B5" r:id="rId2" xr:uid="{7028C8CE-285C-4ACD-BC0A-6D617271C9C9}"/>
     <hyperlink ref="B6" r:id="rId3" xr:uid="{E0D3CF83-B54C-405F-B0FE-27BE58BA445D}"/>
-    <hyperlink ref="B7" r:id="rId4" xr:uid="{6A028A8B-5926-487B-A55C-569F127118F4}"/>
-    <hyperlink ref="B9" r:id="rId5" xr:uid="{967484AA-F55F-4414-BEC1-2F5636E795DC}"/>
-    <hyperlink ref="B10" r:id="rId6" xr:uid="{358908B2-7BCC-4FC2-A53C-8724C656FE34}"/>
-    <hyperlink ref="B13" r:id="rId7" xr:uid="{FB253A50-521E-469A-B10B-F710D55FA6A5}"/>
-    <hyperlink ref="B8" r:id="rId8" xr:uid="{21338284-94DC-4E20-AF30-42E55EEBFD6B}"/>
+    <hyperlink ref="B8" r:id="rId4" xr:uid="{6A028A8B-5926-487B-A55C-569F127118F4}"/>
+    <hyperlink ref="B10" r:id="rId5" xr:uid="{967484AA-F55F-4414-BEC1-2F5636E795DC}"/>
+    <hyperlink ref="B11" r:id="rId6" xr:uid="{358908B2-7BCC-4FC2-A53C-8724C656FE34}"/>
+    <hyperlink ref="B14" r:id="rId7" xr:uid="{FB253A50-521E-469A-B10B-F710D55FA6A5}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{21338284-94DC-4E20-AF30-42E55EEBFD6B}"/>
     <hyperlink ref="B3" r:id="rId9" xr:uid="{701A2B8B-E4E5-4DA4-A7C0-C93ECB8F8F7E}"/>
+    <hyperlink ref="B7" r:id="rId10" xr:uid="{27015DEB-4A5B-4D7B-9C36-B13830D06FBA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
-  <legacyDrawing r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
+  <legacyDrawing r:id="rId12"/>
 </worksheet>
 </file>
--- a/2023/ITF_ElectronicsPartsList.xlsx
+++ b/2023/ITF_ElectronicsPartsList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leistimo\Documents\GitHub\IgniteTheirFuture\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A92AC25-007C-4051-B8DE-B4AC0E877101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8AE10D8-7E65-4DD4-BE27-A058DB8BF3F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-180" yWindow="1300" windowWidth="14400" windowHeight="7360" xr2:uid="{9DB2BF9A-691B-4B10-8437-7BC03796631C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9DB2BF9A-691B-4B10-8437-7BC03796631C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
     <author>Tim Leishman</author>
   </authors>
   <commentList>
-    <comment ref="D9" authorId="0" shapeId="0" xr:uid="{16E6B9D3-802A-4FFA-B7C7-4C45CB2B189C}">
+    <comment ref="D10" authorId="0" shapeId="0" xr:uid="{16E6B9D3-802A-4FFA-B7C7-4C45CB2B189C}">
       <text>
         <r>
           <rPr>
@@ -63,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D10" authorId="0" shapeId="0" xr:uid="{1861855B-F84B-4B89-A287-FA0876C9463C}">
+    <comment ref="D11" authorId="0" shapeId="0" xr:uid="{1861855B-F84B-4B89-A287-FA0876C9463C}">
       <text>
         <r>
           <rPr>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>Bread Board Power Supply Kit</t>
   </si>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t>Walmart</t>
+  </si>
+  <si>
+    <t>37 in 1 Sensor Kit for Arduino</t>
   </si>
 </sst>
 </file>
@@ -167,7 +170,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,6 +199,23 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -218,11 +238,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -538,21 +561,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D56C9EDC-3AE9-49DA-B7E8-451B2CC02C78}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.36328125" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -567,7 +590,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -585,7 +608,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -603,7 +626,7 @@
         <v>59.96</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -617,11 +640,11 @@
         <v>12</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E14" si="0">C4*D4</f>
+        <f t="shared" ref="E4:E15" si="0">C4*D4</f>
         <v>95.88</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -632,14 +655,14 @@
         <v>24.99</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>99.96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+        <v>299.88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -657,7 +680,7 @@
         <v>143.88</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -675,7 +698,7 @@
         <v>118.56</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -693,127 +716,145 @@
         <v>14.95</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>23.99</v>
+      </c>
+      <c r="D9">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>287.88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="B10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="6">
         <v>6.99</v>
       </c>
-      <c r="D9">
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
+        <f t="shared" ref="E10" si="1">C10*D10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="1">
-        <f t="shared" ref="E9" si="1">C9*D9</f>
-        <v>55.92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="1"/>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="1"/>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="1"/>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="1">
-        <f>SUM(E2:E14)</f>
-        <v>769.11</v>
-      </c>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D17" t="s">
+      <c r="E17" s="1">
+        <f>SUM(E2:E15)</f>
+        <v>1200.9900000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="3">
-        <f>E16/B1</f>
-        <v>64.092500000000001</v>
+      <c r="E18" s="3">
+        <f>E17/B1</f>
+        <v>100.08250000000002</v>
       </c>
     </row>
   </sheetData>
@@ -822,15 +863,16 @@
     <hyperlink ref="B5" r:id="rId2" xr:uid="{7028C8CE-285C-4ACD-BC0A-6D617271C9C9}"/>
     <hyperlink ref="B6" r:id="rId3" xr:uid="{E0D3CF83-B54C-405F-B0FE-27BE58BA445D}"/>
     <hyperlink ref="B8" r:id="rId4" xr:uid="{6A028A8B-5926-487B-A55C-569F127118F4}"/>
-    <hyperlink ref="B10" r:id="rId5" xr:uid="{967484AA-F55F-4414-BEC1-2F5636E795DC}"/>
-    <hyperlink ref="B11" r:id="rId6" xr:uid="{358908B2-7BCC-4FC2-A53C-8724C656FE34}"/>
-    <hyperlink ref="B14" r:id="rId7" xr:uid="{FB253A50-521E-469A-B10B-F710D55FA6A5}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{21338284-94DC-4E20-AF30-42E55EEBFD6B}"/>
+    <hyperlink ref="B11" r:id="rId5" xr:uid="{967484AA-F55F-4414-BEC1-2F5636E795DC}"/>
+    <hyperlink ref="B12" r:id="rId6" xr:uid="{358908B2-7BCC-4FC2-A53C-8724C656FE34}"/>
+    <hyperlink ref="B15" r:id="rId7" xr:uid="{FB253A50-521E-469A-B10B-F710D55FA6A5}"/>
+    <hyperlink ref="B10" r:id="rId8" xr:uid="{21338284-94DC-4E20-AF30-42E55EEBFD6B}"/>
     <hyperlink ref="B3" r:id="rId9" xr:uid="{701A2B8B-E4E5-4DA4-A7C0-C93ECB8F8F7E}"/>
     <hyperlink ref="B7" r:id="rId10" xr:uid="{27015DEB-4A5B-4D7B-9C36-B13830D06FBA}"/>
+    <hyperlink ref="B9" r:id="rId11" xr:uid="{DBE40F23-5157-483B-840A-A431624B2913}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
-  <legacyDrawing r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
+  <legacyDrawing r:id="rId13"/>
 </worksheet>
 </file>
--- a/2023/ITF_ElectronicsPartsList.xlsx
+++ b/2023/ITF_ElectronicsPartsList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leistimo\Documents\GitHub\IgniteTheirFuture\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8AE10D8-7E65-4DD4-BE27-A058DB8BF3F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2554877C-BFA3-466F-8241-32F143CF8E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9DB2BF9A-691B-4B10-8437-7BC03796631C}"/>
   </bookViews>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>Bread Board Power Supply Kit</t>
   </si>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t>37 in 1 Sensor Kit for Arduino</t>
+  </si>
+  <si>
+    <t>received</t>
   </si>
 </sst>
 </file>
@@ -561,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D56C9EDC-3AE9-49DA-B7E8-451B2CC02C78}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD16"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,7 +578,7 @@
     <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -589,8 +592,11 @@
       <c r="E1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -608,7 +614,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -625,8 +631,11 @@
         <f>C3*D3</f>
         <v>59.96</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -643,8 +652,11 @@
         <f t="shared" ref="E4:E15" si="0">C4*D4</f>
         <v>95.88</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -661,8 +673,11 @@
         <f t="shared" si="0"/>
         <v>299.88</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -679,8 +694,11 @@
         <f t="shared" si="0"/>
         <v>143.88</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -697,8 +715,11 @@
         <f t="shared" si="0"/>
         <v>118.56</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -715,8 +736,11 @@
         <f t="shared" si="0"/>
         <v>14.95</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -733,8 +757,11 @@
         <f t="shared" si="0"/>
         <v>287.88</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
@@ -752,7 +779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
@@ -768,7 +795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -784,7 +811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
@@ -798,7 +825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
@@ -812,7 +839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
@@ -828,7 +855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>16</v>
       </c>

--- a/2023/ITF_ElectronicsPartsList.xlsx
+++ b/2023/ITF_ElectronicsPartsList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leistimo\Documents\GitHub\IgniteTheirFuture\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2554877C-BFA3-466F-8241-32F143CF8E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{01B94500-250C-4B04-B6C3-8F40121D2ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9DB2BF9A-691B-4B10-8437-7BC03796631C}"/>
   </bookViews>
